--- a/III.2- Strategy/Strategy Matrix/matrix.xlsx
+++ b/III.2- Strategy/Strategy Matrix/matrix.xlsx
@@ -136,15 +136,9 @@
     <t>Home-Office</t>
   </si>
   <si>
-    <t>Increase focus on fast chargers to alleviate ---anxiety</t>
-  </si>
-  <si>
     <t xml:space="preserve">Guarantee dense network coverage </t>
   </si>
   <si>
-    <t>Actively seek collaboration with local goventments to expand the network</t>
-  </si>
-  <si>
     <t>Increase the highway coverage</t>
   </si>
   <si>
@@ -158,6 +152,12 @@
   </si>
   <si>
     <t>Setup rental service</t>
+  </si>
+  <si>
+    <t>Increase focus on fast chargers to alleviate range anxiety</t>
+  </si>
+  <si>
+    <t>Actively seek collaboration and projects with local governments to expand the network</t>
   </si>
 </sst>
 </file>
@@ -332,15 +332,6 @@
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -353,6 +344,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,7 +371,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -657,17 +657,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E18"/>
+  <dimension ref="B1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="76.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="80.28515625" customWidth="1"/>
     <col min="5" max="5" width="99.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -681,192 +681,195 @@
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="12" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="3"/>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="8" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="3"/>
-      <c r="C8" s="9" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="12"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="10" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="10" t="s">
+      <c r="B12" s="15"/>
+      <c r="C12" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="3"/>
-      <c r="C13" s="9" t="s">
+      <c r="B13" s="16"/>
+      <c r="C13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="15"/>
+      <c r="C15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="16"/>
+      <c r="D16" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="11"/>
-    </row>
-    <row r="16" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="3"/>
-      <c r="C16" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="12"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
+      <c r="D19" s="2"/>
+      <c r="E19" s="12"/>
+    </row>
+    <row r="20" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="16"/>
+      <c r="C20" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="D20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="15"/>
-    </row>
-    <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="3"/>
-      <c r="C18" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="12"/>
+      <c r="E20" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -874,7 +877,7 @@
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/III.2- Strategy/Strategy Matrix/matrix.xlsx
+++ b/III.2- Strategy/Strategy Matrix/matrix.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Human Resource</t>
   </si>
@@ -127,9 +127,6 @@
     <t>Zoning</t>
   </si>
   <si>
-    <t>Fast/Slow Charging</t>
-  </si>
-  <si>
     <t>Network Expansion</t>
   </si>
   <si>
@@ -158,6 +155,27 @@
   </si>
   <si>
     <t>Actively seek collaboration and projects with local governments to expand the network</t>
+  </si>
+  <si>
+    <t>provide plug compatibility with two-wheels vehicle, especially in emerging countries</t>
+  </si>
+  <si>
+    <t>Organize campaigns to convince home building owners of their interest to deploy charging stations</t>
+  </si>
+  <si>
+    <t>Organize communication campaigns about the sufficiency of a charger at home/office for daily journeys</t>
+  </si>
+  <si>
+    <t>Offer a complete range of services and technical support for charging stations</t>
+  </si>
+  <si>
+    <t>focus in research on how to keep good performance of batteries after many charging</t>
+  </si>
+  <si>
+    <t>Evaluate the impact of Lithium resources and possibly consider the hydrogen station market</t>
+  </si>
+  <si>
+    <t>Fast-Slow Charging</t>
   </si>
 </sst>
 </file>
@@ -181,7 +199,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -325,11 +343,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -352,6 +420,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -660,14 +752,14 @@
   <dimension ref="B1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="80.28515625" customWidth="1"/>
+    <col min="4" max="4" width="96.140625" customWidth="1"/>
     <col min="5" max="5" width="99.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -815,68 +907,91 @@
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="19"/>
+      <c r="C15" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="19"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="15"/>
-      <c r="C15" s="5" t="s">
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="19"/>
+      <c r="C17" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="16"/>
-      <c r="D16" s="6" t="s">
+      <c r="D17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    </row>
+    <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="20"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="3"/>
+    </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="12"/>
+      <c r="D19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="20" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="16"/>
       <c r="C20" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="E20" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B14:B18"/>
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B19:B20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/III.2- Strategy/Strategy Matrix/matrix.xlsx
+++ b/III.2- Strategy/Strategy Matrix/matrix.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Human Resource</t>
   </si>
@@ -112,18 +112,9 @@
     <t>Increase awareness of standard via advertisement channels</t>
   </si>
   <si>
-    <t xml:space="preserve">Lobby with governments for subsidies </t>
-  </si>
-  <si>
-    <t>Lobby with governments for authorization</t>
-  </si>
-  <si>
     <t>Find new incentives for buyers</t>
   </si>
   <si>
-    <t>Lobby with EV manufacturers to generalize standard</t>
-  </si>
-  <si>
     <t>Zoning</t>
   </si>
   <si>
@@ -176,6 +167,18 @@
   </si>
   <si>
     <t>Fast-Slow Charging</t>
+  </si>
+  <si>
+    <t>Team up with other companies, create research groups.</t>
+  </si>
+  <si>
+    <t>Have standards recognized by governments and used</t>
+  </si>
+  <si>
+    <t>Switch to new subsided market branches</t>
+  </si>
+  <si>
+    <t>Aim for low-cost advantage</t>
   </si>
 </sst>
 </file>
@@ -412,26 +415,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -444,6 +429,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -505,7 +508,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -540,7 +543,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -751,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,7 +776,7 @@
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="22" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -785,7 +788,7 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="15"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="7" t="s">
         <v>20</v>
       </c>
@@ -797,7 +800,7 @@
       </c>
     </row>
     <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="16"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="3" t="s">
         <v>21</v>
       </c>
@@ -809,21 +812,21 @@
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="22" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="15"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="5" t="s">
         <v>29</v>
       </c>
@@ -831,21 +834,23 @@
         <v>31</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="16"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="9"/>
+        <v>52</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -859,7 +864,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="15"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="7" t="s">
         <v>0</v>
       </c>
@@ -871,7 +876,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="15"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="7" t="s">
         <v>2</v>
       </c>
@@ -883,7 +888,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="15"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="7" t="s">
         <v>3</v>
       </c>
@@ -895,7 +900,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="16"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="6" t="s">
         <v>11</v>
       </c>
@@ -907,92 +912,92 @@
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="20"/>
+      <c r="C15" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="E15" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="4" t="s">
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="20"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="20"/>
+      <c r="C17" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="21"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="24"/>
+      <c r="C20" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="19"/>
-      <c r="C15" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="19"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="19"/>
-      <c r="C17" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="20"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="14" t="s">
+      <c r="D20" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="16"/>
-      <c r="C20" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="E20" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B19:B20"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="B14:B18"/>
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B19:B20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/III.2- Strategy/Strategy Matrix/matrix.xlsx
+++ b/III.2- Strategy/Strategy Matrix/matrix.xlsx
@@ -109,9 +109,6 @@
     <t>Authorozation</t>
   </si>
   <si>
-    <t>Increase awareness of standard via advertisement channels</t>
-  </si>
-  <si>
     <t>Find new incentives for buyers</t>
   </si>
   <si>
@@ -169,16 +166,19 @@
     <t>Fast-Slow Charging</t>
   </si>
   <si>
-    <t>Team up with other companies, create research groups.</t>
-  </si>
-  <si>
-    <t>Have standards recognized by governments and used</t>
-  </si>
-  <si>
     <t>Switch to new subsided market branches</t>
   </si>
   <si>
     <t>Aim for low-cost advantage</t>
+  </si>
+  <si>
+    <t>Team up with other companies, create research groups</t>
+  </si>
+  <si>
+    <t>Increase awareness of standards via advertisement channels</t>
+  </si>
+  <si>
+    <t>Have standards recognized by governments, and used</t>
   </si>
 </sst>
 </file>
@@ -421,6 +421,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -439,13 +445,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -754,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,7 +776,7 @@
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -788,7 +788,7 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="23"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="7" t="s">
         <v>20</v>
       </c>
@@ -800,7 +800,7 @@
       </c>
     </row>
     <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="24"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="3" t="s">
         <v>21</v>
       </c>
@@ -812,45 +812,45 @@
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="16" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="23"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="24"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="16" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -864,7 +864,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="23"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="7" t="s">
         <v>0</v>
       </c>
@@ -876,7 +876,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="23"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="7" t="s">
         <v>2</v>
       </c>
@@ -888,7 +888,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="23"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="7" t="s">
         <v>3</v>
       </c>
@@ -900,7 +900,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="24"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="6" t="s">
         <v>11</v>
       </c>
@@ -912,92 +912,92 @@
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="22"/>
+      <c r="C15" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="D15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="22"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="22"/>
+      <c r="C17" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="23"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="16" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="20"/>
-      <c r="C15" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="20"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="20"/>
-      <c r="C17" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="C19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="21"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="4" t="s">
+      <c r="E19" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="17"/>
+      <c r="C20" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="24"/>
-      <c r="C20" s="6" t="s">
+      <c r="D20" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="E20" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="B14:B18"/>
     <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/III.2- Strategy/Strategy Matrix/matrix.xlsx
+++ b/III.2- Strategy/Strategy Matrix/matrix.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Human Resource</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>Have standards recognized by governments, and used</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
 </sst>
 </file>
@@ -194,13 +197,19 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="15">
     <border>
@@ -400,7 +409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -414,7 +423,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -424,6 +432,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -445,9 +456,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,7 +490,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -508,7 +532,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -543,7 +567,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -752,13 +776,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E20"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
@@ -766,8 +790,8 @@
     <col min="5" max="5" width="99.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
@@ -775,8 +799,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -787,8 +811,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="16"/>
       <c r="C4" s="7" t="s">
         <v>20</v>
       </c>
@@ -799,7 +823,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="17"/>
       <c r="C5" s="3" t="s">
         <v>21</v>
@@ -811,8 +835,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="15" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -825,8 +849,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="24"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="16"/>
       <c r="C7" s="5" t="s">
         <v>29</v>
       </c>
@@ -837,7 +861,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="17"/>
       <c r="C8" s="6" t="s">
         <v>30</v>
@@ -849,73 +873,80 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="24"/>
+      <c r="B9" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="27" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="24"/>
-      <c r="C10" s="7" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="24"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="30" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="24"/>
-      <c r="C11" s="7" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="28"/>
+      <c r="C11" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="30" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="24"/>
-      <c r="C12" s="7" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="24"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="30" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="17"/>
-      <c r="C13" s="6" t="s">
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="24"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="33" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="14" t="s">
         <v>49</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -925,7 +956,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="22"/>
       <c r="C15" s="18" t="s">
         <v>33</v>
@@ -937,7 +968,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="22"/>
       <c r="C16" s="19"/>
       <c r="D16" s="5" t="s">
@@ -960,13 +991,13 @@
     <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="23"/>
       <c r="C18" s="20"/>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="13" t="s">
         <v>45</v>
       </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="15" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="4" t="s">

--- a/III.2- Strategy/Strategy Matrix/matrix.xlsx
+++ b/III.2- Strategy/Strategy Matrix/matrix.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Human Resource</t>
   </si>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t>done</t>
+  </si>
+  <si>
+    <t>done too</t>
   </si>
 </sst>
 </file>
@@ -197,7 +200,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -210,6 +213,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="15">
     <border>
@@ -409,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -423,12 +432,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -438,40 +448,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,7 +503,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -779,10 +792,10 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
@@ -800,7 +813,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="20" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -812,7 +825,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="7" t="s">
         <v>20</v>
       </c>
@@ -824,7 +837,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="17"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="3" t="s">
         <v>21</v>
       </c>
@@ -836,7 +849,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -850,7 +863,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="5" t="s">
         <v>29</v>
       </c>
@@ -862,7 +875,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="17"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="6" t="s">
         <v>30</v>
       </c>
@@ -874,130 +887,137 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="29" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="29" t="s">
+      <c r="B11" s="24"/>
+      <c r="C11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="29" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="32" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="19" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="21" t="s">
+      <c r="A14" s="37"/>
+      <c r="B14" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="28" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="22"/>
-      <c r="C15" s="18" t="s">
+      <c r="A15" s="37"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="31" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="22"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="5" t="s">
+      <c r="A16" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="29"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="22"/>
-      <c r="C17" s="18" t="s">
+      <c r="E16" s="31"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="37"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="31" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="23"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="13" t="s">
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="37"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="15" t="s">
+      <c r="E18" s="36"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="20" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -1010,8 +1030,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="17"/>
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="22"/>
       <c r="C20" s="6" t="s">
         <v>39</v>
       </c>

--- a/III.2- Strategy/Strategy Matrix/matrix.xlsx
+++ b/III.2- Strategy/Strategy Matrix/matrix.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Human Resource</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>done too</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -200,7 +203,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,8 +222,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -414,23 +423,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -439,52 +454,71 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,7 +579,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -580,7 +614,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -792,7 +826,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,211 +847,216 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="21"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="24"/>
+      <c r="C4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="22"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="20" t="s">
+    <row r="6" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="38" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="21"/>
-      <c r="C7" s="5" t="s">
+    <row r="7" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="45"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="41" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="22"/>
-      <c r="C8" s="6" t="s">
+    <row r="8" spans="1:5" s="35" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="45"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="44" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="23" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="16" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="33"/>
+      <c r="C11" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="14" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="16" t="s">
+      <c r="A12" s="10"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="18" t="s">
+      <c r="A13" s="10"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
-      <c r="B14" s="26" t="s">
+      <c r="A14" s="22"/>
+      <c r="B14" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="18" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="30" t="s">
+      <c r="A15" s="22"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="19" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="31" t="s">
+      <c r="B16" s="30"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="31"/>
+      <c r="E16" s="19"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="30" t="s">
+      <c r="A17" s="22"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="19" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="37"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="35" t="s">
+      <c r="A18" s="22"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="36"/>
+      <c r="E18" s="21"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="23" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -1026,22 +1065,23 @@
       <c r="D19" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="22"/>
-      <c r="C20" s="6" t="s">
+      <c r="B20" s="25"/>
+      <c r="C20" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="9"/>
+      <c r="E20" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A6:A8"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="B19:B20"/>

--- a/III.2- Strategy/Strategy Matrix/matrix.xlsx
+++ b/III.2- Strategy/Strategy Matrix/matrix.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -82,21 +82,6 @@
     <t>Electricity Price</t>
   </si>
   <si>
-    <t>Lobby with government to put more tax and reduce oil subsidy on oil price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Increase public awareness oil availability by different advertisement channels </t>
-  </si>
-  <si>
-    <t>Lobby with government to reduce tax and increase subsidy on EV charging and electricity market</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Increase next generation oil availability awareness ….. Textbook </t>
-  </si>
-  <si>
-    <t>Support academic researches EV charging efficiency and effectiveness</t>
-  </si>
-  <si>
     <t>Laws &amp; Regulations</t>
   </si>
   <si>
@@ -158,19 +143,52 @@
   </si>
   <si>
     <t>Setup rental service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increase next generation oil availability awareness through school's Textbook </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Support academic to do more  research about EV charging efficiency and effectiveness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increase public attention to low energy cost of Electric vehciles by advertisment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increase public attention to high energy cost of gasoline vehciles by advertisment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increase public awareness oil availability by advertisement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -329,18 +347,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -353,9 +362,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -371,7 +392,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -413,7 +434,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -445,10 +466,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -480,7 +500,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -656,23 +675,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="76.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="99.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="95.5" customWidth="1"/>
+    <col min="5" max="5" width="99.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:5" ht="14.25" thickBot="1"/>
+    <row r="2" spans="2:5" ht="14.25" thickBot="1">
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
@@ -680,193 +699,193 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="2:5" ht="15">
+      <c r="B3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="15"/>
+      <c r="C4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="14.25" thickBot="1">
+      <c r="B5" s="16"/>
+      <c r="C5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="14" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-      <c r="C4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="C6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="D6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="15"/>
+      <c r="C7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="14.25" thickBot="1">
+      <c r="B8" s="16"/>
+      <c r="C8" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="3"/>
-      <c r="C5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="15"/>
+      <c r="C10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="15"/>
+      <c r="C11" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="15"/>
+      <c r="C12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="14.25" thickBot="1">
+      <c r="B13" s="16"/>
+      <c r="C13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="D14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="15"/>
+      <c r="C15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="2:5" ht="14.25" thickBot="1">
+      <c r="B16" s="16"/>
+      <c r="C16" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="3"/>
-      <c r="C8" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="12"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="3"/>
-      <c r="C13" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="8" t="s">
+      <c r="D17" s="2"/>
+      <c r="E17" s="12"/>
+    </row>
+    <row r="18" spans="2:5" ht="14.25" thickBot="1">
+      <c r="B18" s="16"/>
+      <c r="C18" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="11"/>
-    </row>
-    <row r="16" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="3"/>
-      <c r="C16" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="9" t="s">
+      <c r="D18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="12"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="15"/>
-    </row>
-    <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="3"/>
-      <c r="C18" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="12"/>
+      <c r="E18" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -876,6 +895,7 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B17:B18"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>